--- a/assets.xlsx
+++ b/assets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Downloads\BOT_crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BFFF1F-53F3-4B39-8BC3-7BF2E77EF76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363174D1-7D9A-418D-B1DA-F27FAC90F174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
     <t>ETH/USDT</t>
   </si>
   <si>
-    <t>TONCOIN/USDT</t>
+    <t>TON/USDT</t>
   </si>
 </sst>
 </file>
@@ -113,11 +113,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -401,16 +400,16 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -424,7 +423,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1">
@@ -438,7 +437,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1">
@@ -447,7 +446,7 @@
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1">
@@ -455,7 +454,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1">
@@ -464,7 +463,7 @@
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1">
@@ -472,7 +471,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
@@ -481,7 +480,7 @@
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1">
@@ -489,7 +488,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1">

--- a/assets.xlsx
+++ b/assets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Downloads\BOT_crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363174D1-7D9A-418D-B1DA-F27FAC90F174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA6DDB3-0A9E-4962-BDEF-49D562A8EF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,18 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Symbol</t>
-  </si>
-  <si>
-    <t>Valore</t>
-  </si>
-  <si>
-    <t>Liquidità_USDT</t>
-  </si>
-  <si>
-    <t>Liquidità_AED</t>
   </si>
   <si>
     <t>BNB/USDT</t>
@@ -113,10 +104,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -400,100 +392,84 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>670</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3521</v>
-      </c>
-      <c r="D2">
-        <v>5438</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>862</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
-        <v>424</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>371</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1">
-        <v>150</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>327</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>8100</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4481</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>

--- a/assets.xlsx
+++ b/assets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Downloads\BOT_crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA6DDB3-0A9E-4962-BDEF-49D562A8EF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8CD744-6063-4C65-8EB0-050E894F4359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Symbol</t>
-  </si>
-  <si>
     <t>BNB/USDT</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>TON/USDT</t>
+  </si>
+  <si>
+    <t>symbol</t>
   </si>
 </sst>
 </file>
@@ -104,11 +104,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -389,95 +388,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
   </sheetData>
